--- a/api links.xlsx
+++ b/api links.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\web notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\script\Desktop\fullstackcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C400020-DFD8-44B3-A23B-9E731C959DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A1F7A8-8EC1-4508-B6AB-098F7E576B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,12 +132,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -153,9 +159,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -440,7 +448,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,10 +498,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
     </row>
